--- a/datasets/VVDTweets.xlsx
+++ b/datasets/VVDTweets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73340f4fe5fc17d4/Documenten/R/Master Class/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gidib\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D6E32F-2FE2-4D60-853E-CE5907F59E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94815A7-F7C3-4162-8676-E2B14BA92873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F49BC51B-EEF1-41F3-A412-49B860E9704E}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>full_text</t>
   </si>
   <si>
     <t>label</t>
-  </si>
-  <si>
-    <t>Party</t>
   </si>
   <si>
     <t>Het komt er nu op aan: Nederland krijgt een links of een centrumrechts kabinet. Stem VVD voor een centrumrechts kabinet dat kiest voor rust in je portemonnee, een groeiende economie en een strenge asielaanpak. Alleen met een sterke VVD kunnen we een links kabinet voorkomen.</t>
@@ -195,9 +192,6 @@
   </si>
   <si>
     <t>Dit is dus goed nieuws, maar zijn we er nog lang niet. Werkende Nederlanders in ons land liggen nog steeds wakker van hoge kosten en grote onzekerheid voor de toekomst. We moeten de portemonnee van de hardwerkende Nederlanders beschermen.</t>
-  </si>
-  <si>
-    <t>VVD</t>
   </si>
 </sst>
 </file>
@@ -239,14 +233,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -268,13 +260,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -316,13 +308,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -364,13 +356,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -412,13 +404,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -460,13 +452,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -508,13 +500,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -556,13 +548,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -604,13 +596,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -652,13 +644,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -700,13 +692,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -748,13 +740,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -796,13 +788,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -844,13 +836,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -892,13 +884,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -988,13 +980,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1036,13 +1028,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1084,13 +1076,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1132,13 +1124,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1180,13 +1172,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1546,561 +1538,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFEDDA2-6897-43E8-833E-105E57C3E181}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1">
+      <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1">
+      <c r="B29">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1">
+      <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="B50">
         <v>1</v>
       </c>
     </row>
